--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cd38-Pecam1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cd38-Pecam1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.030349</v>
+        <v>47.78957466666667</v>
       </c>
       <c r="H2">
-        <v>72.091047</v>
+        <v>143.368724</v>
       </c>
       <c r="I2">
-        <v>0.8655386453070183</v>
+        <v>0.9275442943704633</v>
       </c>
       <c r="J2">
-        <v>0.8655386453070184</v>
+        <v>0.927544294370463</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>216.1448186666667</v>
+        <v>206.8463543333333</v>
       </c>
       <c r="N2">
-        <v>648.434456</v>
+        <v>620.5390629999999</v>
       </c>
       <c r="O2">
-        <v>0.9739197284603751</v>
+        <v>0.9727792429746633</v>
       </c>
       <c r="P2">
-        <v>0.9739197284603752</v>
+        <v>0.9727792429746634</v>
       </c>
       <c r="Q2">
-        <v>5194.035427101715</v>
+        <v>9885.099294940625</v>
       </c>
       <c r="R2">
-        <v>46746.31884391543</v>
+        <v>88965.89365446562</v>
       </c>
       <c r="S2">
-        <v>0.8429651624093721</v>
+        <v>0.9022958365031676</v>
       </c>
       <c r="T2">
-        <v>0.8429651624093724</v>
+        <v>0.9022958365031675</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.030349</v>
+        <v>47.78957466666667</v>
       </c>
       <c r="H3">
-        <v>72.091047</v>
+        <v>143.368724</v>
       </c>
       <c r="I3">
-        <v>0.8655386453070183</v>
+        <v>0.9275442943704633</v>
       </c>
       <c r="J3">
-        <v>0.8655386453070184</v>
+        <v>0.927544294370463</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.181559666666667</v>
+        <v>3.181559666666666</v>
       </c>
       <c r="N3">
-        <v>9.544679</v>
+        <v>9.544678999999999</v>
       </c>
       <c r="O3">
-        <v>0.01433568357434949</v>
+        <v>0.01496258038481643</v>
       </c>
       <c r="P3">
-        <v>0.01433568357434949</v>
+        <v>0.01496258038481643</v>
       </c>
       <c r="Q3">
-        <v>76.45398915432368</v>
+        <v>152.0453832466218</v>
       </c>
       <c r="R3">
-        <v>688.085902388913</v>
+        <v>1368.408449219596</v>
       </c>
       <c r="S3">
-        <v>0.01240808814049253</v>
+        <v>0.01387845606499589</v>
       </c>
       <c r="T3">
-        <v>0.01240808814049253</v>
+        <v>0.01387845606499589</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.030349</v>
+        <v>47.78957466666667</v>
       </c>
       <c r="H4">
-        <v>72.091047</v>
+        <v>143.368724</v>
       </c>
       <c r="I4">
-        <v>0.8655386453070183</v>
+        <v>0.9275442943704633</v>
       </c>
       <c r="J4">
-        <v>0.8655386453070184</v>
+        <v>0.927544294370463</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>7.819531</v>
       </c>
       <c r="O4">
-        <v>0.01174458796527538</v>
+        <v>0.01225817664052023</v>
       </c>
       <c r="P4">
-        <v>0.01174458796527538</v>
+        <v>0.01225817664052023</v>
       </c>
       <c r="Q4">
-        <v>62.63535298210633</v>
+        <v>124.5640201942716</v>
       </c>
       <c r="R4">
-        <v>563.718176838957</v>
+        <v>1121.076181748444</v>
       </c>
       <c r="S4">
-        <v>0.01016539475715356</v>
+        <v>0.01137000180229983</v>
       </c>
       <c r="T4">
-        <v>0.01016539475715356</v>
+        <v>0.01137000180229983</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.123429999999999</v>
+        <v>3.12343</v>
       </c>
       <c r="H5">
-        <v>9.370289999999999</v>
+        <v>9.370290000000001</v>
       </c>
       <c r="I5">
-        <v>0.1125014610029717</v>
+        <v>0.06062242017370963</v>
       </c>
       <c r="J5">
-        <v>0.1125014610029717</v>
+        <v>0.06062242017370962</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>216.1448186666667</v>
+        <v>206.8463543333333</v>
       </c>
       <c r="N5">
-        <v>648.434456</v>
+        <v>620.5390629999999</v>
       </c>
       <c r="O5">
-        <v>0.9739197284603751</v>
+        <v>0.9727792429746633</v>
       </c>
       <c r="P5">
-        <v>0.9739197284603752</v>
+        <v>0.9727792429746634</v>
       </c>
       <c r="Q5">
-        <v>675.1132109680265</v>
+        <v>646.0701085153634</v>
       </c>
       <c r="R5">
-        <v>6076.018898712239</v>
+        <v>5814.63097663827</v>
       </c>
       <c r="S5">
-        <v>0.1095673923514097</v>
+        <v>0.05897223200387321</v>
       </c>
       <c r="T5">
-        <v>0.1095673923514097</v>
+        <v>0.05897223200387321</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.123429999999999</v>
+        <v>3.12343</v>
       </c>
       <c r="H6">
-        <v>9.370289999999999</v>
+        <v>9.370290000000001</v>
       </c>
       <c r="I6">
-        <v>0.1125014610029717</v>
+        <v>0.06062242017370963</v>
       </c>
       <c r="J6">
-        <v>0.1125014610029717</v>
+        <v>0.06062242017370962</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.181559666666667</v>
+        <v>3.181559666666666</v>
       </c>
       <c r="N6">
-        <v>9.544679</v>
+        <v>9.544678999999999</v>
       </c>
       <c r="O6">
-        <v>0.01433568357434949</v>
+        <v>0.01496258038481643</v>
       </c>
       <c r="P6">
-        <v>0.01433568357434949</v>
+        <v>0.01496258038481643</v>
       </c>
       <c r="Q6">
-        <v>9.937378909656665</v>
+        <v>9.937378909656667</v>
       </c>
       <c r="R6">
         <v>89.43641018691</v>
       </c>
       <c r="S6">
-        <v>0.001612785346590621</v>
+        <v>0.0009070678349712474</v>
       </c>
       <c r="T6">
-        <v>0.001612785346590621</v>
+        <v>0.0009070678349712474</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.123429999999999</v>
+        <v>3.12343</v>
       </c>
       <c r="H7">
-        <v>9.370289999999999</v>
+        <v>9.370290000000001</v>
       </c>
       <c r="I7">
-        <v>0.1125014610029717</v>
+        <v>0.06062242017370963</v>
       </c>
       <c r="J7">
-        <v>0.1125014610029717</v>
+        <v>0.06062242017370962</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>7.819531</v>
       </c>
       <c r="O7">
-        <v>0.01174458796527538</v>
+        <v>0.01225817664052023</v>
       </c>
       <c r="P7">
-        <v>0.01174458796527538</v>
+        <v>0.01225817664052023</v>
       </c>
       <c r="Q7">
-        <v>8.141252570443331</v>
+        <v>8.141252570443333</v>
       </c>
       <c r="R7">
-        <v>73.27127313398999</v>
+        <v>73.27127313399001</v>
       </c>
       <c r="S7">
-        <v>0.001321283304971398</v>
+        <v>0.0007431203348651697</v>
       </c>
       <c r="T7">
-        <v>0.001321283304971399</v>
+        <v>0.0007431203348651698</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>1.829048</v>
       </c>
       <c r="I8">
-        <v>0.02195989369000996</v>
+        <v>0.01183328545582722</v>
       </c>
       <c r="J8">
-        <v>0.02195989369000996</v>
+        <v>0.01183328545582722</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>216.1448186666667</v>
+        <v>206.8463543333333</v>
       </c>
       <c r="N8">
-        <v>648.434456</v>
+        <v>620.5390629999999</v>
       </c>
       <c r="O8">
-        <v>0.9739197284603751</v>
+        <v>0.9727792429746633</v>
       </c>
       <c r="P8">
-        <v>0.9739197284603752</v>
+        <v>0.9727792429746634</v>
       </c>
       <c r="Q8">
-        <v>131.7797494308764</v>
+        <v>126.1106369002249</v>
       </c>
       <c r="R8">
-        <v>1186.017744877888</v>
+        <v>1134.995732102024</v>
       </c>
       <c r="S8">
-        <v>0.0213871736995932</v>
+        <v>0.0115111744676227</v>
       </c>
       <c r="T8">
-        <v>0.02138717369959321</v>
+        <v>0.0115111744676227</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>1.829048</v>
       </c>
       <c r="I9">
-        <v>0.02195989369000996</v>
+        <v>0.01183328545582722</v>
       </c>
       <c r="J9">
-        <v>0.02195989369000996</v>
+        <v>0.01183328545582722</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.181559666666667</v>
+        <v>3.181559666666666</v>
       </c>
       <c r="N9">
-        <v>9.544679</v>
+        <v>9.544678999999999</v>
       </c>
       <c r="O9">
-        <v>0.01433568357434949</v>
+        <v>0.01496258038481643</v>
       </c>
       <c r="P9">
-        <v>0.01433568357434949</v>
+        <v>0.01496258038481643</v>
       </c>
       <c r="Q9">
-        <v>1.939741781732445</v>
+        <v>1.939741781732444</v>
       </c>
       <c r="R9">
         <v>17.457676035592</v>
       </c>
       <c r="S9">
-        <v>0.0003148100872663367</v>
+        <v>0.0001770564848492939</v>
       </c>
       <c r="T9">
-        <v>0.0003148100872663367</v>
+        <v>0.0001770564848492939</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>1.829048</v>
       </c>
       <c r="I10">
-        <v>0.02195989369000996</v>
+        <v>0.01183328545582722</v>
       </c>
       <c r="J10">
-        <v>0.02195989369000996</v>
+        <v>0.01183328545582722</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>7.819531</v>
       </c>
       <c r="O10">
-        <v>0.01174458796527538</v>
+        <v>0.01225817664052023</v>
       </c>
       <c r="P10">
-        <v>0.01174458796527538</v>
+        <v>0.01225817664052023</v>
       </c>
       <c r="Q10">
         <v>1.589144170720889</v>
@@ -1066,10 +1066,10 @@
         <v>14.302297536488</v>
       </c>
       <c r="S10">
-        <v>0.0002579099031504176</v>
+        <v>0.000145054503355229</v>
       </c>
       <c r="T10">
-        <v>0.0002579099031504176</v>
+        <v>0.000145054503355229</v>
       </c>
     </row>
   </sheetData>
